--- a/spliced/falling/2023-03-25_17-58-58/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-58/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.185474908351898</v>
+        <v>-3.540287351608276</v>
       </c>
       <c r="D2" t="n">
-        <v>5.544018769264222</v>
+        <v>5.382533311843872</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.341128690540791</v>
+        <v>-1.780441856384277</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0138971842825412</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0024434609804302</v>
+        <v>0.0187841057777404</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.022754730656743</v>
+        <v>0.0213802829384803</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.169438767433166</v>
+        <v>-3.185474908351898</v>
       </c>
       <c r="D3" t="n">
-        <v>5.001180601119994</v>
+        <v>5.544018769264222</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6735752552747722</v>
+        <v>-1.341128690540791</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0771217346191406</v>
+        <v>-0.0138971842825412</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0389426611363887</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0746782794594764</v>
+        <v>-0.022754730656743</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.514218628406524</v>
+        <v>-3.169438767433166</v>
       </c>
       <c r="D4" t="n">
-        <v>5.064400196075439</v>
+        <v>5.001180601119994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5307594910264006</v>
+        <v>-0.6735752552747722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0310014113783836</v>
+        <v>-0.0771217346191406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08857546001672741</v>
+        <v>0.0389426611363887</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0905607715249061</v>
+        <v>-0.0746782794594764</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.949312973022461</v>
+        <v>-3.514218628406524</v>
       </c>
       <c r="D5" t="n">
-        <v>3.677936935424804</v>
+        <v>5.064400196075439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8671627283096315</v>
+        <v>0.5307594910264006</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1030835136771202</v>
+        <v>0.0310014113783836</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2098322063684463</v>
+        <v>0.08857546001672741</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0536034256219863</v>
+        <v>-0.0905607715249061</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.74082317352295</v>
+        <v>-3.949312973022461</v>
       </c>
       <c r="D6" t="n">
-        <v>2.939013087749481</v>
+        <v>3.677936935424804</v>
       </c>
       <c r="E6" t="n">
-        <v>1.662665629386903</v>
+        <v>0.8671627283096315</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1169806942343711</v>
+        <v>-0.1030835136771202</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2922990322113037</v>
+        <v>-0.2098322063684463</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0441350154578685</v>
+        <v>-0.0536034256219863</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.156321334838866</v>
+        <v>-4.74082317352295</v>
       </c>
       <c r="D7" t="n">
-        <v>2.482692444324494</v>
+        <v>2.939013087749481</v>
       </c>
       <c r="E7" t="n">
-        <v>2.901540523767471</v>
+        <v>1.662665629386903</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0219911485910415</v>
+        <v>-0.1169806942343711</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4163046777248382</v>
+        <v>0.2922990322113037</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2826778888702392</v>
+        <v>-0.0441350154578685</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.70512387752533</v>
+        <v>-6.156321334838866</v>
       </c>
       <c r="D8" t="n">
-        <v>1.984266856312751</v>
+        <v>2.482692444324494</v>
       </c>
       <c r="E8" t="n">
-        <v>2.305714881420135</v>
+        <v>2.901540523767471</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3194825351238251</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.665232241153717</v>
+        <v>0.4163046777248382</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.632065534591675</v>
+        <v>-0.2826778888702392</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.514288425445558</v>
+        <v>-6.70512387752533</v>
       </c>
       <c r="D9" t="n">
-        <v>2.538958132266995</v>
+        <v>1.984266856312751</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7396240234375031</v>
+        <v>2.305714881420135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5913175344467163</v>
+        <v>-0.3194825351238251</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.5700763463974</v>
+        <v>-0.665232241153717</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.044857740402222</v>
+        <v>-2.632065534591675</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13.64799528121941</v>
+        <v>-6.514288425445558</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5907153248786794</v>
+        <v>2.538958132266995</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.010972028970702</v>
+        <v>0.7396240234375031</v>
       </c>
       <c r="F10" t="n">
-        <v>1.056644201278686</v>
+        <v>0.5913175344467163</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6782131195068359</v>
+        <v>-1.5700763463974</v>
       </c>
       <c r="H10" t="n">
-        <v>3.03432035446167</v>
+        <v>-3.044857740402222</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25.54574513435358</v>
+        <v>13.64799528121941</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.183045053482042</v>
+        <v>-0.5907153248786794</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.100710201263412</v>
+        <v>-5.010972028970702</v>
       </c>
       <c r="F11" t="n">
-        <v>2.593886613845825</v>
+        <v>1.056644201278686</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.678352236747742</v>
+        <v>-0.6782131195068359</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.245832443237305</v>
+        <v>3.03432035446167</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.683456826210012</v>
+        <v>25.54574513435358</v>
       </c>
       <c r="D12" t="n">
-        <v>4.46893746256828</v>
+        <v>-2.183045053482042</v>
       </c>
       <c r="E12" t="n">
-        <v>1.391087603569029</v>
+        <v>-7.100710201263412</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1194241568446159</v>
+        <v>2.593886613845825</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0649044290184974</v>
+        <v>-1.678352236747742</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2437352389097213</v>
+        <v>-3.245832443237305</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.132775115966798</v>
+        <v>-1.683456826210012</v>
       </c>
       <c r="D13" t="n">
-        <v>4.239795589447025</v>
+        <v>4.46893746256828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7271292686462392</v>
+        <v>1.391087603569029</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2799290120601654</v>
+        <v>-0.1194241568446159</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1166752651333808</v>
+        <v>-0.0649044290184974</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2556470930576324</v>
+        <v>-0.2437352389097213</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.974032163619995</v>
+        <v>1.132775115966798</v>
       </c>
       <c r="D14" t="n">
-        <v>6.137257993221282</v>
+        <v>4.239795589447025</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4547893404960567</v>
+        <v>0.7271292686462392</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2722931802272796</v>
+        <v>-0.2799290120601654</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-0.1166752651333808</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4535674452781677</v>
+        <v>-0.2556470930576324</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.989514970779418</v>
+        <v>1.974032163619995</v>
       </c>
       <c r="D15" t="n">
-        <v>6.169636392593385</v>
+        <v>6.137257993221282</v>
       </c>
       <c r="E15" t="n">
-        <v>2.127831518650056</v>
+        <v>0.4547893404960567</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3746131062507629</v>
+        <v>-0.2722931802272796</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3875939846038818</v>
+        <v>-0.7874053120613098</v>
       </c>
       <c r="H15" t="n">
-        <v>2.562732458114624</v>
+        <v>-0.4535674452781677</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.919293570518496</v>
+        <v>1.989514970779418</v>
       </c>
       <c r="D16" t="n">
-        <v>4.336295771598811</v>
+        <v>6.169636392593385</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.078460484743126</v>
+        <v>2.127831518650056</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0140499006956815</v>
+        <v>-0.3746131062507629</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09651670604944219</v>
+        <v>-0.3875939846038818</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1705841124057769</v>
+        <v>2.562732458114624</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.384284400939942</v>
+        <v>2.919293570518496</v>
       </c>
       <c r="D17" t="n">
-        <v>5.661798715591432</v>
+        <v>4.336295771598811</v>
       </c>
       <c r="E17" t="n">
-        <v>3.016176247596746</v>
+        <v>-1.078460484743126</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08338310569524759</v>
+        <v>-0.0140499006956815</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4002694487571716</v>
+        <v>-0.09651670604944219</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007177666760981</v>
+        <v>0.1705841124057769</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.664549851417542</v>
+        <v>3.384284400939942</v>
       </c>
       <c r="D18" t="n">
-        <v>6.045073473453522</v>
+        <v>5.661798715591432</v>
       </c>
       <c r="E18" t="n">
-        <v>1.692821365594864</v>
+        <v>3.016176247596746</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0167987942695617</v>
+        <v>-0.08338310569524759</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2802344262599945</v>
+        <v>0.4002694487571716</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0123700210824608</v>
+        <v>0.007177666760981</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.458636522293091</v>
+        <v>1.664549851417542</v>
       </c>
       <c r="D19" t="n">
-        <v>6.004646182060242</v>
+        <v>6.045073473453522</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9704791456460963</v>
+        <v>1.692821365594864</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0948368310928344</v>
+        <v>-0.0167987942695617</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0352774672210216</v>
+        <v>-0.2802344262599945</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1113301888108253</v>
+        <v>-0.0123700210824608</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.448996758460998</v>
+        <v>1.458636522293091</v>
       </c>
       <c r="D20" t="n">
-        <v>5.705842137336731</v>
+        <v>6.004646182060242</v>
       </c>
       <c r="E20" t="n">
-        <v>1.135319881141186</v>
+        <v>0.9704791456460963</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0395535230636596</v>
+        <v>-0.0948368310928344</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0447458773851394</v>
+        <v>0.0352774672210216</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0209221355617046</v>
+        <v>-0.1113301888108253</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.438675880432129</v>
+        <v>1.448996758460998</v>
       </c>
       <c r="D21" t="n">
-        <v>5.703988456726075</v>
+        <v>5.705842137336731</v>
       </c>
       <c r="E21" t="n">
-        <v>1.146768474578857</v>
+        <v>1.135319881141186</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0830776765942573</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1788308024406433</v>
+        <v>-0.0447458773851394</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0158824957907199</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.517132639884949</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.866671967506409</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.15747617483139</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0752891451120376</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0606283769011497</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0500909499824047</v>
+        <v>-0.0209221355617046</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-58-58/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-58/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.540287351608276</v>
+        <v>-3.130717563629151</v>
       </c>
       <c r="D2" t="n">
-        <v>5.382533311843872</v>
+        <v>5.486354422569275</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.780441856384277</v>
+        <v>-2.054217553138733</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0032070425804704</v>
+        <v>0.0345138870179653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0187841057777404</v>
+        <v>-0.0546724386513233</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0213802829384803</v>
+        <v>0.1018617823719978</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.185474908351898</v>
+        <v>-3.261763083934784</v>
       </c>
       <c r="D3" t="n">
-        <v>5.544018769264222</v>
+        <v>5.438373637199402</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.341128690540791</v>
+        <v>-2.230073320865632</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0138971842825412</v>
+        <v>-0.0178678091615438</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0024434609804302</v>
+        <v>-0.0160352122038602</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.022754730656743</v>
+        <v>0.0375682115554809</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.169438767433166</v>
+        <v>-3.289464282989502</v>
       </c>
       <c r="D4" t="n">
-        <v>5.001180601119994</v>
+        <v>5.444673538208008</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6735752552747722</v>
+        <v>-2.207874870300293</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0771217346191406</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0389426611363887</v>
+        <v>-0.0097738439217209</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0746782794594764</v>
+        <v>-0.0500909499824047</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.514218628406524</v>
+        <v>-3.29152911901474</v>
       </c>
       <c r="D5" t="n">
-        <v>5.064400196075439</v>
+        <v>5.474263513088226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5307594910264006</v>
+        <v>-1.988579791784286</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0310014113783836</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08857546001672741</v>
+        <v>0.0166460778564214</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0905607715249061</v>
+        <v>0.0087048299610614</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.949312973022461</v>
+        <v>-3.39021909236908</v>
       </c>
       <c r="D6" t="n">
-        <v>3.677936935424804</v>
+        <v>5.475549221038817</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8671627283096315</v>
+        <v>-1.85912013053894</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1030835136771202</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2098322063684463</v>
+        <v>0.058643065392971</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0536034256219863</v>
+        <v>0.0251981914043426</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.74082317352295</v>
+        <v>-3.51887332201004</v>
       </c>
       <c r="D7" t="n">
-        <v>2.939013087749481</v>
+        <v>5.510936594009399</v>
       </c>
       <c r="E7" t="n">
-        <v>1.662665629386903</v>
+        <v>-1.821529471874237</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1169806942343711</v>
+        <v>0.0279470849782228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2922990322113037</v>
+        <v>0.0377209298312664</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0441350154578685</v>
+        <v>0.0471893399953842</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.156321334838866</v>
+        <v>-3.540287351608276</v>
       </c>
       <c r="D8" t="n">
-        <v>2.482692444324494</v>
+        <v>5.382533311843872</v>
       </c>
       <c r="E8" t="n">
-        <v>2.901540523767471</v>
+        <v>-1.780441856384277</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0219911485910415</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4163046777248382</v>
+        <v>0.0187841057777404</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2826778888702392</v>
+        <v>0.0213802829384803</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.70512387752533</v>
+        <v>-3.185474908351898</v>
       </c>
       <c r="D9" t="n">
-        <v>1.984266856312751</v>
+        <v>5.544018769264222</v>
       </c>
       <c r="E9" t="n">
-        <v>2.305714881420135</v>
+        <v>-1.341128690540791</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3194825351238251</v>
+        <v>-0.0138971842825412</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.665232241153717</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.632065534591675</v>
+        <v>-0.022754730656743</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.514288425445558</v>
+        <v>-3.169438767433166</v>
       </c>
       <c r="D10" t="n">
-        <v>2.538958132266995</v>
+        <v>5.001180601119994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7396240234375031</v>
+        <v>-0.6735752552747722</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5913175344467163</v>
+        <v>-0.0771217346191406</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.5700763463974</v>
+        <v>0.0389426611363887</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.044857740402222</v>
+        <v>-0.0746782794594764</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13.64799528121941</v>
+        <v>-3.514218628406524</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5907153248786794</v>
+        <v>5.064400196075439</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.010972028970702</v>
+        <v>0.5307594910264006</v>
       </c>
       <c r="F11" t="n">
-        <v>1.056644201278686</v>
+        <v>0.0310014113783836</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6782131195068359</v>
+        <v>0.08857546001672741</v>
       </c>
       <c r="H11" t="n">
-        <v>3.03432035446167</v>
+        <v>-0.0905607715249061</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.54574513435358</v>
+        <v>-3.949312973022461</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.183045053482042</v>
+        <v>3.677936935424804</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.100710201263412</v>
+        <v>0.8671627283096315</v>
       </c>
       <c r="F12" t="n">
-        <v>2.593886613845825</v>
+        <v>-0.1030835136771202</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.678352236747742</v>
+        <v>-0.2098322063684463</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.245832443237305</v>
+        <v>-0.0536034256219863</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.683456826210012</v>
+        <v>-4.74082317352295</v>
       </c>
       <c r="D13" t="n">
-        <v>4.46893746256828</v>
+        <v>2.939013087749481</v>
       </c>
       <c r="E13" t="n">
-        <v>1.391087603569029</v>
+        <v>1.662665629386903</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1194241568446159</v>
+        <v>-0.1169806942343711</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0649044290184974</v>
+        <v>0.2922990322113037</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2437352389097213</v>
+        <v>-0.0441350154578685</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.132775115966798</v>
+        <v>-6.156321334838866</v>
       </c>
       <c r="D14" t="n">
-        <v>4.239795589447025</v>
+        <v>2.482692444324494</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7271292686462392</v>
+        <v>2.901540523767471</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2799290120601654</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1166752651333808</v>
+        <v>0.4163046777248382</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2556470930576324</v>
+        <v>-0.2826778888702392</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.974032163619995</v>
+        <v>-6.70512387752533</v>
       </c>
       <c r="D15" t="n">
-        <v>6.137257993221282</v>
+        <v>1.984266856312751</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4547893404960567</v>
+        <v>2.305714881420135</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2722931802272796</v>
+        <v>-0.3194825351238251</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-0.665232241153717</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4535674452781677</v>
+        <v>-2.632065534591675</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.989514970779418</v>
+        <v>-6.514288425445558</v>
       </c>
       <c r="D16" t="n">
-        <v>6.169636392593385</v>
+        <v>2.538958132266995</v>
       </c>
       <c r="E16" t="n">
-        <v>2.127831518650056</v>
+        <v>0.7396240234375031</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3746131062507629</v>
+        <v>0.5913175344467163</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3875939846038818</v>
+        <v>-1.5700763463974</v>
       </c>
       <c r="H16" t="n">
-        <v>2.562732458114624</v>
+        <v>-3.044857740402222</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.919293570518496</v>
+        <v>13.64799528121941</v>
       </c>
       <c r="D17" t="n">
-        <v>4.336295771598811</v>
+        <v>-0.5907153248786794</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.078460484743126</v>
+        <v>-5.010972028970702</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0140499006956815</v>
+        <v>1.056644201278686</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.09651670604944219</v>
+        <v>-0.6782131195068359</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1705841124057769</v>
+        <v>3.03432035446167</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.384284400939942</v>
+        <v>25.54574513435358</v>
       </c>
       <c r="D18" t="n">
-        <v>5.661798715591432</v>
+        <v>-2.183045053482042</v>
       </c>
       <c r="E18" t="n">
-        <v>3.016176247596746</v>
+        <v>-7.100710201263412</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.08338310569524759</v>
+        <v>2.593886613845825</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4002694487571716</v>
+        <v>-1.678352236747742</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007177666760981</v>
+        <v>-3.245832443237305</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.664549851417542</v>
+        <v>-1.683456826210012</v>
       </c>
       <c r="D19" t="n">
-        <v>6.045073473453522</v>
+        <v>4.46893746256828</v>
       </c>
       <c r="E19" t="n">
-        <v>1.692821365594864</v>
+        <v>1.391087603569029</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0167987942695617</v>
+        <v>-0.1194241568446159</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2802344262599945</v>
+        <v>-0.0649044290184974</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0123700210824608</v>
+        <v>-0.2437352389097213</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.458636522293091</v>
+        <v>1.132775115966798</v>
       </c>
       <c r="D20" t="n">
-        <v>6.004646182060242</v>
+        <v>4.239795589447025</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9704791456460963</v>
+        <v>0.7271292686462392</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0948368310928344</v>
+        <v>-0.2799290120601654</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0352774672210216</v>
+        <v>-0.1166752651333808</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1113301888108253</v>
+        <v>-0.2556470930576324</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>1.974032163619995</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.137257993221282</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4547893404960567</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.2722931802272796</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.7874053120613098</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4535674452781677</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.989514970779418</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.169636392593385</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.127831518650056</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.3746131062507629</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3875939846038818</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.562732458114624</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.919293570518496</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.336295771598811</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.078460484743126</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0140499006956815</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.09651670604944219</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1705841124057769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.384284400939942</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.661798715591432</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.016176247596746</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.08338310569524759</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4002694487571716</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.007177666760981</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.664549851417542</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.045073473453522</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.692821365594864</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0167987942695617</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2802344262599945</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0123700210824608</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.458636522293091</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.004646182060242</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9704791456460963</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0948368310928344</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0352774672210216</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1113301888108253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>1.448996758460998</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>5.705842137336731</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E27" t="n">
         <v>1.135319881141186</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F27" t="n">
         <v>-0.0395535230636596</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>-0.0447458773851394</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>-0.0209221355617046</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.438675880432129</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.703988456726075</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.146768474578857</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0830776765942573</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1788308024406433</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0158824957907199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.517132639884949</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.866671967506409</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.15747617483139</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0752891451120376</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0606283769011497</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0500909499824047</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.545208883285523</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.865323352813721</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.205629134178161</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0174096599221229</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0296269636601209</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.0302378293126821</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.573752522468567</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.771291553974152</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.240318953990936</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0155770638957619</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0525344125926494</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0565050356090068</v>
       </c>
     </row>
   </sheetData>
